--- a/natmiOut/OldD2/Network_exp_0_spe_0_det_0.2_top_0_signal_lrc2p_weight_mean/Mtx.xlsx
+++ b/natmiOut/OldD2/Network_exp_0_spe_0_det_0.2_top_0_signal_lrc2p_weight_mean/Mtx.xlsx
@@ -507,7 +507,7 @@
         <v>663</v>
       </c>
       <c r="G2">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -530,7 +530,7 @@
         <v>727</v>
       </c>
       <c r="G3">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -553,7 +553,7 @@
         <v>464</v>
       </c>
       <c r="G4">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -576,7 +576,7 @@
         <v>563</v>
       </c>
       <c r="G5">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -599,7 +599,7 @@
         <v>674</v>
       </c>
       <c r="G6">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -607,22 +607,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C7">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D7">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E7">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F7">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G7">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>23.7719818927121</v>
       </c>
       <c r="G2">
-        <v>42.47346841752196</v>
+        <v>39.47566275329583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -701,7 +701,7 @@
         <v>36.581533461528</v>
       </c>
       <c r="G3">
-        <v>70.37155053306708</v>
+        <v>68.71199456519733</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -724,7 +724,7 @@
         <v>13.26263156981881</v>
       </c>
       <c r="G4">
-        <v>21.05333006566747</v>
+        <v>20.18301534525898</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -747,7 +747,7 @@
         <v>15.86274578802283</v>
       </c>
       <c r="G5">
-        <v>27.30452809173407</v>
+        <v>25.07784971866704</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -770,7 +770,7 @@
         <v>17.34327025000585</v>
       </c>
       <c r="G6">
-        <v>28.00880918990458</v>
+        <v>26.29043284127035</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -778,22 +778,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>44.45327178089111</v>
+        <v>42.96433382502781</v>
       </c>
       <c r="C7">
-        <v>48.63795744204047</v>
+        <v>47.56294111323479</v>
       </c>
       <c r="D7">
-        <v>24.16128328986623</v>
+        <v>23.98773478401795</v>
       </c>
       <c r="E7">
-        <v>32.8726826025631</v>
+        <v>32.64214743154125</v>
       </c>
       <c r="F7">
-        <v>27.99210198445259</v>
+        <v>27.22917576665743</v>
       </c>
       <c r="G7">
-        <v>63.6008293537776</v>
+        <v>58.80452460731752</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +849,7 @@
         <v>822340.4159001949</v>
       </c>
       <c r="G2">
-        <v>594586.8297253653</v>
+        <v>594327.3771450681</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -872,7 +872,7 @@
         <v>1401167.683388004</v>
       </c>
       <c r="G3">
-        <v>1284147.869309878</v>
+        <v>1283953.521261354</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -895,7 +895,7 @@
         <v>1320695.083595024</v>
       </c>
       <c r="G4">
-        <v>1318015.895822004</v>
+        <v>1317791.19653231</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -918,7 +918,7 @@
         <v>1106957.969019732</v>
       </c>
       <c r="G5">
-        <v>946040.1649201568</v>
+        <v>945811.3968482605</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -941,7 +941,7 @@
         <v>551491.7044405758</v>
       </c>
       <c r="G6">
-        <v>400025.0334939447</v>
+        <v>399842.9098702255</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -949,22 +949,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>658353.65671179</v>
+        <v>658290.9300417735</v>
       </c>
       <c r="C7">
-        <v>518059.3411731887</v>
+        <v>518050.8318308584</v>
       </c>
       <c r="D7">
-        <v>861533.8054946279</v>
+        <v>861523.9898203491</v>
       </c>
       <c r="E7">
-        <v>976964.9577389983</v>
+        <v>976957.619561079</v>
       </c>
       <c r="F7">
-        <v>454639.5906731356</v>
+        <v>454582.7854977746</v>
       </c>
       <c r="G7">
-        <v>440338.3576145106</v>
+        <v>439933.7828754935</v>
       </c>
     </row>
   </sheetData>
